--- a/extra-documentation/Servo_Calibration.xlsx
+++ b/extra-documentation/Servo_Calibration.xlsx
@@ -1050,8 +1050,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003D4B8426ED9DF0418E7D82A8EFF9F0B7" ma:contentTypeVersion="18" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="37903484852cc68c6cbb399485ec6874">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="83eacfe3-c00a-4164-ae91-b158220668e6" xmlns:ns3="71637818-e0ed-4d6b-9640-ab8b6c5d7c46" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="23ef3c3451b1c530f248928cde1ae9b8" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101003D4B8426ED9DF0418E7D82A8EFF9F0B7" ma:contentTypeVersion="18" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="7f298d5bd7139443139c084a5d202990">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="83eacfe3-c00a-4164-ae91-b158220668e6" xmlns:ns3="71637818-e0ed-4d6b-9640-ab8b6c5d7c46" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1900f09ee415a22ccb2b4907beccbb54" ns2:_="" ns3:_="">
     <xsd:import namespace="83eacfe3-c00a-4164-ae91-b158220668e6"/>
     <xsd:import namespace="71637818-e0ed-4d6b-9640-ab8b6c5d7c46"/>
     <xsd:element name="properties">
@@ -1146,7 +1146,7 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Afbeeldingtags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="6010e5f2-6256-435c-892d-4495c8ac235d" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="6010e5f2-6256-435c-892d-4495c8ac235d" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -1178,7 +1178,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="22" nillable="true" ma:displayName="Gedeeld met" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="22" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -1197,7 +1197,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="23" nillable="true" ma:displayName="Gedeeld met details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="23" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -1214,8 +1214,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Inhoudstype"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -1333,7 +1333,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6980DBAC-6353-4BFE-97B6-5D1915EDC1D2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{159A2DD6-AEBE-45FE-A31D-EA216093B6D1}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
